--- a/Article/Table_2_DA.xlsx
+++ b/Article/Table_2_DA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CaniMeta\Article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DOGMASeq\Article\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="25845"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Barcode</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Zymo Research ZMB</t>
   </si>
   <si>
-    <t>Readcount</t>
-  </si>
-  <si>
     <t>Library Preparation Method</t>
   </si>
   <si>
@@ -69,6 +66,36 @@
   </si>
   <si>
     <t>DNA Isolation Method</t>
+  </si>
+  <si>
+    <t>35.911076 M</t>
+  </si>
+  <si>
+    <t>5.408513 G</t>
+  </si>
+  <si>
+    <t>12.527755 M</t>
+  </si>
+  <si>
+    <t>1.902734 G</t>
+  </si>
+  <si>
+    <t>Merged, Filtered Readcount</t>
+  </si>
+  <si>
+    <t>Merged, Filtered Basecount</t>
+  </si>
+  <si>
+    <t>2.956194 M</t>
+  </si>
+  <si>
+    <t>3.784325 G</t>
+  </si>
+  <si>
+    <t>Raw Basecount</t>
+  </si>
+  <si>
+    <t>Raw Readcount</t>
   </si>
 </sst>
 </file>
@@ -198,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,9 +243,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G4"/>
+  <dimension ref="B1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,70 +597,96 @@
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="5" max="10" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="2:10" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>4</v>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>8</v>
+    <row r="3" spans="2:10" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:10" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
